--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Tnfrsf14-Btla.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Tnfrsf14-Btla.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,55 +534,55 @@
         <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.19085849081739</v>
+        <v>3.853017333333334</v>
       </c>
       <c r="H2">
-        <v>3.19085849081739</v>
+        <v>11.559052</v>
       </c>
       <c r="I2">
-        <v>0.05570809348967615</v>
+        <v>0.06452481780012836</v>
       </c>
       <c r="J2">
-        <v>0.05570809348967615</v>
+        <v>0.06452481780012838</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>1.05390739223671</v>
+        <v>0.3107469999999999</v>
       </c>
       <c r="N2">
-        <v>1.05390739223671</v>
+        <v>0.9322409999999999</v>
       </c>
       <c r="O2">
-        <v>0.1503535229531639</v>
+        <v>0.03551873957835448</v>
       </c>
       <c r="P2">
-        <v>0.1503535229531639</v>
+        <v>0.03551873957835448</v>
       </c>
       <c r="Q2">
-        <v>3.362869351053719</v>
+        <v>1.197313577281333</v>
       </c>
       <c r="R2">
-        <v>3.362869351053719</v>
+        <v>10.775822195532</v>
       </c>
       <c r="S2">
-        <v>0.008375908113177023</v>
+        <v>0.002291840199783531</v>
       </c>
       <c r="T2">
-        <v>0.008375908113177023</v>
+        <v>0.002291840199783532</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,55 +596,55 @@
         <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.19085849081739</v>
+        <v>3.853017333333334</v>
       </c>
       <c r="H3">
-        <v>3.19085849081739</v>
+        <v>11.559052</v>
       </c>
       <c r="I3">
-        <v>0.05570809348967615</v>
+        <v>0.06452481780012836</v>
       </c>
       <c r="J3">
-        <v>0.05570809348967615</v>
+        <v>0.06452481780012838</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>3.42594705951735</v>
+        <v>1.585088</v>
       </c>
       <c r="N3">
-        <v>3.42594705951735</v>
+        <v>4.755264</v>
       </c>
       <c r="O3">
-        <v>0.4887556664312426</v>
+        <v>0.1811773818597598</v>
       </c>
       <c r="P3">
-        <v>0.4887556664312426</v>
+        <v>0.1811773818597597</v>
       </c>
       <c r="Q3">
-        <v>10.93171226395181</v>
+        <v>6.107371538858668</v>
       </c>
       <c r="R3">
-        <v>10.93171226395181</v>
+        <v>54.96634384972801</v>
       </c>
       <c r="S3">
-        <v>0.02722764635916064</v>
+        <v>0.01169043755400528</v>
       </c>
       <c r="T3">
-        <v>0.02722764635916064</v>
+        <v>0.01169043755400528</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,60 +658,60 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.19085849081739</v>
+        <v>3.853017333333334</v>
       </c>
       <c r="H4">
-        <v>3.19085849081739</v>
+        <v>11.559052</v>
       </c>
       <c r="I4">
-        <v>0.05570809348967615</v>
+        <v>0.06452481780012836</v>
       </c>
       <c r="J4">
-        <v>0.05570809348967615</v>
+        <v>0.06452481780012838</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.52967463367355</v>
+        <v>4.150503333333333</v>
       </c>
       <c r="N4">
-        <v>2.52967463367355</v>
+        <v>12.45151</v>
       </c>
       <c r="O4">
-        <v>0.3608908106155935</v>
+        <v>0.474407305672328</v>
       </c>
       <c r="P4">
-        <v>0.3608908106155935</v>
+        <v>0.4744073056723279</v>
       </c>
       <c r="Q4">
-        <v>8.071833783862617</v>
+        <v>15.99196128539111</v>
       </c>
       <c r="R4">
-        <v>8.071833783862617</v>
+        <v>143.92765156852</v>
       </c>
       <c r="S4">
-        <v>0.0201045390173385</v>
+        <v>0.03061104496155677</v>
       </c>
       <c r="T4">
-        <v>0.0201045390173385</v>
+        <v>0.03061104496155677</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>26</v>
@@ -720,55 +720,55 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.40499174086462</v>
+        <v>3.853017333333334</v>
       </c>
       <c r="H5">
-        <v>2.40499174086462</v>
+        <v>11.559052</v>
       </c>
       <c r="I5">
-        <v>0.04198791802505312</v>
+        <v>0.06452481780012836</v>
       </c>
       <c r="J5">
-        <v>0.04198791802505312</v>
+        <v>0.06452481780012838</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.05390739223671</v>
+        <v>2.70248</v>
       </c>
       <c r="N5">
-        <v>1.05390739223671</v>
+        <v>8.10744</v>
       </c>
       <c r="O5">
-        <v>0.1503535229531639</v>
+        <v>0.3088965728895579</v>
       </c>
       <c r="P5">
-        <v>0.1503535229531639</v>
+        <v>0.3088965728895579</v>
       </c>
       <c r="Q5">
-        <v>2.534638573965457</v>
+        <v>10.41270228298667</v>
       </c>
       <c r="R5">
-        <v>2.534638573965457</v>
+        <v>93.71432054688002</v>
       </c>
       <c r="S5">
-        <v>0.006313031396535387</v>
+        <v>0.01993149508478279</v>
       </c>
       <c r="T5">
-        <v>0.006313031396535387</v>
+        <v>0.0199314950847828</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,55 +782,55 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.40499174086462</v>
+        <v>2.521954666666666</v>
       </c>
       <c r="H6">
-        <v>2.40499174086462</v>
+        <v>7.565863999999999</v>
       </c>
       <c r="I6">
-        <v>0.04198791802505312</v>
+        <v>0.04223408598737598</v>
       </c>
       <c r="J6">
-        <v>0.04198791802505312</v>
+        <v>0.04223408598737599</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>3.42594705951735</v>
+        <v>0.3107469999999999</v>
       </c>
       <c r="N6">
-        <v>3.42594705951735</v>
+        <v>0.9322409999999999</v>
       </c>
       <c r="O6">
-        <v>0.4887556664312426</v>
+        <v>0.03551873957835448</v>
       </c>
       <c r="P6">
-        <v>0.4887556664312426</v>
+        <v>0.03551873957835448</v>
       </c>
       <c r="Q6">
-        <v>8.239374382778658</v>
+        <v>0.7836898468026664</v>
       </c>
       <c r="R6">
-        <v>8.239374382778658</v>
+        <v>7.053208621223998</v>
       </c>
       <c r="S6">
-        <v>0.02052183285639522</v>
+        <v>0.001500101501515438</v>
       </c>
       <c r="T6">
-        <v>0.02052183285639522</v>
+        <v>0.001500101501515438</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,60 +844,60 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2.40499174086462</v>
+        <v>2.521954666666666</v>
       </c>
       <c r="H7">
-        <v>2.40499174086462</v>
+        <v>7.565863999999999</v>
       </c>
       <c r="I7">
-        <v>0.04198791802505312</v>
+        <v>0.04223408598737598</v>
       </c>
       <c r="J7">
-        <v>0.04198791802505312</v>
+        <v>0.04223408598737599</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.52967463367355</v>
+        <v>1.585088</v>
       </c>
       <c r="N7">
-        <v>2.52967463367355</v>
+        <v>4.755264</v>
       </c>
       <c r="O7">
-        <v>0.3608908106155935</v>
+        <v>0.1811773818597598</v>
       </c>
       <c r="P7">
-        <v>0.3608908106155935</v>
+        <v>0.1811773818597597</v>
       </c>
       <c r="Q7">
-        <v>6.083846601059622</v>
+        <v>3.997520078677333</v>
       </c>
       <c r="R7">
-        <v>6.083846601059622</v>
+        <v>35.977680708096</v>
       </c>
       <c r="S7">
-        <v>0.01515305377212251</v>
+        <v>0.007651861124432746</v>
       </c>
       <c r="T7">
-        <v>0.01515305377212251</v>
+        <v>0.007651861124432747</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>26</v>
@@ -906,60 +906,60 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>16.8970094874847</v>
+        <v>2.521954666666666</v>
       </c>
       <c r="H8">
-        <v>16.8970094874847</v>
+        <v>7.565863999999999</v>
       </c>
       <c r="I8">
-        <v>0.2949990376989778</v>
+        <v>0.04223408598737598</v>
       </c>
       <c r="J8">
-        <v>0.2949990376989778</v>
+        <v>0.04223408598737599</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.05390739223671</v>
+        <v>4.150503333333333</v>
       </c>
       <c r="N8">
-        <v>1.05390739223671</v>
+        <v>12.45151</v>
       </c>
       <c r="O8">
-        <v>0.1503535229531639</v>
+        <v>0.474407305672328</v>
       </c>
       <c r="P8">
-        <v>0.1503535229531639</v>
+        <v>0.4744073056723279</v>
       </c>
       <c r="Q8">
-        <v>17.80788320555395</v>
+        <v>10.46738125051555</v>
       </c>
       <c r="R8">
-        <v>17.80788320555395</v>
+        <v>94.20643125463998</v>
       </c>
       <c r="S8">
-        <v>0.04435414458583451</v>
+        <v>0.02003615894080446</v>
       </c>
       <c r="T8">
-        <v>0.04435414458583451</v>
+        <v>0.02003615894080446</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>26</v>
@@ -968,55 +968,55 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>16.8970094874847</v>
+        <v>2.521954666666666</v>
       </c>
       <c r="H9">
-        <v>16.8970094874847</v>
+        <v>7.565863999999999</v>
       </c>
       <c r="I9">
-        <v>0.2949990376989778</v>
+        <v>0.04223408598737598</v>
       </c>
       <c r="J9">
-        <v>0.2949990376989778</v>
+        <v>0.04223408598737599</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>3.42594705951735</v>
+        <v>2.70248</v>
       </c>
       <c r="N9">
-        <v>3.42594705951735</v>
+        <v>8.10744</v>
       </c>
       <c r="O9">
-        <v>0.4887556664312426</v>
+        <v>0.3088965728895579</v>
       </c>
       <c r="P9">
-        <v>0.4887556664312426</v>
+        <v>0.3088965728895579</v>
       </c>
       <c r="Q9">
-        <v>57.88825996828497</v>
+        <v>6.815532047573332</v>
       </c>
       <c r="R9">
-        <v>57.88825996828497</v>
+        <v>61.33978842816</v>
       </c>
       <c r="S9">
-        <v>0.1441824512671392</v>
+        <v>0.01304596442062334</v>
       </c>
       <c r="T9">
-        <v>0.1441824512671392</v>
+        <v>0.01304596442062334</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,60 +1030,60 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>16.8970094874847</v>
+        <v>17.84381733333333</v>
       </c>
       <c r="H10">
-        <v>16.8970094874847</v>
+        <v>53.53145199999999</v>
       </c>
       <c r="I10">
-        <v>0.2949990376989778</v>
+        <v>0.2988227050865691</v>
       </c>
       <c r="J10">
-        <v>0.2949990376989778</v>
+        <v>0.2988227050865692</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>2.52967463367355</v>
+        <v>0.3107469999999999</v>
       </c>
       <c r="N10">
-        <v>2.52967463367355</v>
+        <v>0.9322409999999999</v>
       </c>
       <c r="O10">
-        <v>0.3608908106155935</v>
+        <v>0.03551873957835448</v>
       </c>
       <c r="P10">
-        <v>0.3608908106155935</v>
+        <v>0.03551873957835448</v>
       </c>
       <c r="Q10">
-        <v>42.74393628543135</v>
+        <v>5.544912704881331</v>
       </c>
       <c r="R10">
-        <v>42.74393628543135</v>
+        <v>49.90421434393199</v>
       </c>
       <c r="S10">
-        <v>0.1064624418460041</v>
+        <v>0.01061380584206927</v>
       </c>
       <c r="T10">
-        <v>0.1064624418460041</v>
+        <v>0.01061380584206927</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1095,57 +1095,57 @@
         <v>22</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>23.3410422329119</v>
+        <v>17.84381733333333</v>
       </c>
       <c r="H11">
-        <v>23.3410422329119</v>
+        <v>53.53145199999999</v>
       </c>
       <c r="I11">
-        <v>0.4075031740202451</v>
+        <v>0.2988227050865691</v>
       </c>
       <c r="J11">
-        <v>0.4075031740202451</v>
+        <v>0.2988227050865692</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.05390739223671</v>
+        <v>1.585088</v>
       </c>
       <c r="N11">
-        <v>1.05390739223671</v>
+        <v>4.755264</v>
       </c>
       <c r="O11">
-        <v>0.1503535229531639</v>
+        <v>0.1811773818597598</v>
       </c>
       <c r="P11">
-        <v>0.1503535229531639</v>
+        <v>0.1811773818597597</v>
       </c>
       <c r="Q11">
-        <v>24.59929695177509</v>
+        <v>28.28402072925866</v>
       </c>
       <c r="R11">
-        <v>24.59929695177509</v>
+        <v>254.556186563328</v>
       </c>
       <c r="S11">
-        <v>0.06126953782854005</v>
+        <v>0.05413991534783569</v>
       </c>
       <c r="T11">
-        <v>0.06126953782854005</v>
+        <v>0.05413991534783571</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1157,57 +1157,57 @@
         <v>23</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>23.3410422329119</v>
+        <v>17.84381733333333</v>
       </c>
       <c r="H12">
-        <v>23.3410422329119</v>
+        <v>53.53145199999999</v>
       </c>
       <c r="I12">
-        <v>0.4075031740202451</v>
+        <v>0.2988227050865691</v>
       </c>
       <c r="J12">
-        <v>0.4075031740202451</v>
+        <v>0.2988227050865692</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.42594705951735</v>
+        <v>4.150503333333333</v>
       </c>
       <c r="N12">
-        <v>3.42594705951735</v>
+        <v>12.45151</v>
       </c>
       <c r="O12">
-        <v>0.4887556664312426</v>
+        <v>0.474407305672328</v>
       </c>
       <c r="P12">
-        <v>0.4887556664312426</v>
+        <v>0.4744073056723279</v>
       </c>
       <c r="Q12">
-        <v>79.96517500391481</v>
+        <v>74.0608233213911</v>
       </c>
       <c r="R12">
-        <v>79.96517500391481</v>
+        <v>666.5474098925199</v>
       </c>
       <c r="S12">
-        <v>0.1991694853911115</v>
+        <v>0.1417636743938359</v>
       </c>
       <c r="T12">
-        <v>0.1991694853911115</v>
+        <v>0.1417636743938359</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1219,57 +1219,57 @@
         <v>24</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>23.3410422329119</v>
+        <v>17.84381733333333</v>
       </c>
       <c r="H13">
-        <v>23.3410422329119</v>
+        <v>53.53145199999999</v>
       </c>
       <c r="I13">
-        <v>0.4075031740202451</v>
+        <v>0.2988227050865691</v>
       </c>
       <c r="J13">
-        <v>0.4075031740202451</v>
+        <v>0.2988227050865692</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>2.52967463367355</v>
+        <v>2.70248</v>
       </c>
       <c r="N13">
-        <v>2.52967463367355</v>
+        <v>8.10744</v>
       </c>
       <c r="O13">
-        <v>0.3608908106155935</v>
+        <v>0.3088965728895579</v>
       </c>
       <c r="P13">
-        <v>0.3608908106155935</v>
+        <v>0.3088965728895579</v>
       </c>
       <c r="Q13">
-        <v>59.04524246010027</v>
+        <v>48.22255946698666</v>
       </c>
       <c r="R13">
-        <v>59.04524246010027</v>
+        <v>434.00303520288</v>
       </c>
       <c r="S13">
-        <v>0.1470641508005935</v>
+        <v>0.09230530950282823</v>
       </c>
       <c r="T13">
-        <v>0.1470641508005935</v>
+        <v>0.09230530950282827</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
         <v>26</v>
@@ -1278,60 +1278,60 @@
         <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>10.4479510400673</v>
+        <v>23.64775066666667</v>
       </c>
       <c r="H14">
-        <v>10.4479510400673</v>
+        <v>70.943252</v>
       </c>
       <c r="I14">
-        <v>0.182407159386918</v>
+        <v>0.3960186708606028</v>
       </c>
       <c r="J14">
-        <v>0.182407159386918</v>
+        <v>0.3960186708606028</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>1.05390739223671</v>
+        <v>0.3107469999999999</v>
       </c>
       <c r="N14">
-        <v>1.05390739223671</v>
+        <v>0.9322409999999999</v>
       </c>
       <c r="O14">
-        <v>0.1503535229531639</v>
+        <v>0.03551873957835448</v>
       </c>
       <c r="P14">
-        <v>0.1503535229531639</v>
+        <v>0.03551873957835448</v>
       </c>
       <c r="Q14">
-        <v>11.01117283485415</v>
+        <v>7.348467576414666</v>
       </c>
       <c r="R14">
-        <v>11.01117283485415</v>
+        <v>66.136208187732</v>
       </c>
       <c r="S14">
-        <v>0.0274255590257024</v>
+        <v>0.01406608403846383</v>
       </c>
       <c r="T14">
-        <v>0.0274255590257024</v>
+        <v>0.01406608403846383</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
         <v>26</v>
@@ -1340,60 +1340,60 @@
         <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>10.4479510400673</v>
+        <v>23.64775066666667</v>
       </c>
       <c r="H15">
-        <v>10.4479510400673</v>
+        <v>70.943252</v>
       </c>
       <c r="I15">
-        <v>0.182407159386918</v>
+        <v>0.3960186708606028</v>
       </c>
       <c r="J15">
-        <v>0.182407159386918</v>
+        <v>0.3960186708606028</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>3.42594705951735</v>
+        <v>1.585088</v>
       </c>
       <c r="N15">
-        <v>3.42594705951735</v>
+        <v>4.755264</v>
       </c>
       <c r="O15">
-        <v>0.4887556664312426</v>
+        <v>0.1811773818597598</v>
       </c>
       <c r="P15">
-        <v>0.4887556664312426</v>
+        <v>0.1811773818597597</v>
       </c>
       <c r="Q15">
-        <v>35.7941271436998</v>
+        <v>37.48376580872534</v>
       </c>
       <c r="R15">
-        <v>35.7941271436998</v>
+        <v>337.353892278528</v>
       </c>
       <c r="S15">
-        <v>0.08915253274798302</v>
+        <v>0.07174962595410594</v>
       </c>
       <c r="T15">
-        <v>0.08915253274798302</v>
+        <v>0.07174962595410594</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B16" t="s">
         <v>26</v>
@@ -1402,60 +1402,60 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>10.4479510400673</v>
+        <v>23.64775066666667</v>
       </c>
       <c r="H16">
-        <v>10.4479510400673</v>
+        <v>70.943252</v>
       </c>
       <c r="I16">
-        <v>0.182407159386918</v>
+        <v>0.3960186708606028</v>
       </c>
       <c r="J16">
-        <v>0.182407159386918</v>
+        <v>0.3960186708606028</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>2.52967463367355</v>
+        <v>4.150503333333333</v>
       </c>
       <c r="N16">
-        <v>2.52967463367355</v>
+        <v>12.45151</v>
       </c>
       <c r="O16">
-        <v>0.3608908106155935</v>
+        <v>0.474407305672328</v>
       </c>
       <c r="P16">
-        <v>0.3608908106155935</v>
+        <v>0.4744073056723279</v>
       </c>
       <c r="Q16">
-        <v>26.42991671992143</v>
+        <v>98.15006796783555</v>
       </c>
       <c r="R16">
-        <v>26.42991671992143</v>
+        <v>883.35061171052</v>
       </c>
       <c r="S16">
-        <v>0.06582906761323262</v>
+        <v>0.187874150638915</v>
       </c>
       <c r="T16">
-        <v>0.06582906761323262</v>
+        <v>0.187874150638915</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B17" t="s">
         <v>26</v>
@@ -1464,60 +1464,60 @@
         <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.996332114094014</v>
+        <v>23.64775066666667</v>
       </c>
       <c r="H17">
-        <v>0.996332114094014</v>
+        <v>70.943252</v>
       </c>
       <c r="I17">
-        <v>0.01739461737912979</v>
+        <v>0.3960186708606028</v>
       </c>
       <c r="J17">
-        <v>0.01739461737912979</v>
+        <v>0.3960186708606028</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.05390739223671</v>
+        <v>2.70248</v>
       </c>
       <c r="N17">
-        <v>1.05390739223671</v>
+        <v>8.10744</v>
       </c>
       <c r="O17">
-        <v>0.1503535229531639</v>
+        <v>0.3088965728895579</v>
       </c>
       <c r="P17">
-        <v>0.1503535229531639</v>
+        <v>0.3088965728895579</v>
       </c>
       <c r="Q17">
-        <v>1.050041780166511</v>
+        <v>63.90757322165334</v>
       </c>
       <c r="R17">
-        <v>1.050041780166511</v>
+        <v>575.1681589948801</v>
       </c>
       <c r="S17">
-        <v>0.002615342003374493</v>
+        <v>0.122328810229118</v>
       </c>
       <c r="T17">
-        <v>0.002615342003374493</v>
+        <v>0.122328810229118</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -1526,117 +1526,489 @@
         <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.996332114094014</v>
+        <v>10.697805</v>
       </c>
       <c r="H18">
-        <v>0.996332114094014</v>
+        <v>32.093415</v>
       </c>
       <c r="I18">
-        <v>0.01739461737912979</v>
+        <v>0.1791515217215829</v>
       </c>
       <c r="J18">
-        <v>0.01739461737912979</v>
+        <v>0.1791515217215829</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L18">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M18">
-        <v>3.42594705951735</v>
+        <v>0.3107469999999999</v>
       </c>
       <c r="N18">
-        <v>3.42594705951735</v>
+        <v>0.9322409999999999</v>
       </c>
       <c r="O18">
-        <v>0.4887556664312426</v>
+        <v>0.03551873957835448</v>
       </c>
       <c r="P18">
-        <v>0.4887556664312426</v>
+        <v>0.03551873957835448</v>
       </c>
       <c r="Q18">
-        <v>3.413381076583092</v>
+        <v>3.324310810335</v>
       </c>
       <c r="R18">
-        <v>3.413381076583092</v>
+        <v>29.918797293015</v>
       </c>
       <c r="S18">
-        <v>0.008501717809453054</v>
+        <v>0.006363236245094821</v>
       </c>
       <c r="T18">
-        <v>0.008501717809453054</v>
+        <v>0.006363236245094821</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>10.697805</v>
+      </c>
+      <c r="H19">
+        <v>32.093415</v>
+      </c>
+      <c r="I19">
+        <v>0.1791515217215829</v>
+      </c>
+      <c r="J19">
+        <v>0.1791515217215829</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>1.585088</v>
+      </c>
+      <c r="N19">
+        <v>4.755264</v>
+      </c>
+      <c r="O19">
+        <v>0.1811773818597598</v>
+      </c>
+      <c r="P19">
+        <v>0.1811773818597597</v>
+      </c>
+      <c r="Q19">
+        <v>16.95696233184</v>
+      </c>
+      <c r="R19">
+        <v>152.61266098656</v>
+      </c>
+      <c r="S19">
+        <v>0.03245820366170828</v>
+      </c>
+      <c r="T19">
+        <v>0.03245820366170828</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>10.697805</v>
+      </c>
+      <c r="H20">
+        <v>32.093415</v>
+      </c>
+      <c r="I20">
+        <v>0.1791515217215829</v>
+      </c>
+      <c r="J20">
+        <v>0.1791515217215829</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>4.150503333333333</v>
+      </c>
+      <c r="N20">
+        <v>12.45151</v>
+      </c>
+      <c r="O20">
+        <v>0.474407305672328</v>
+      </c>
+      <c r="P20">
+        <v>0.4744073056723279</v>
+      </c>
+      <c r="Q20">
+        <v>44.40127531185</v>
+      </c>
+      <c r="R20">
+        <v>399.61147780665</v>
+      </c>
+      <c r="S20">
+        <v>0.08499079072703371</v>
+      </c>
+      <c r="T20">
+        <v>0.08499079072703368</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>10.697805</v>
+      </c>
+      <c r="H21">
+        <v>32.093415</v>
+      </c>
+      <c r="I21">
+        <v>0.1791515217215829</v>
+      </c>
+      <c r="J21">
+        <v>0.1791515217215829</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>2.70248</v>
+      </c>
+      <c r="N21">
+        <v>8.10744</v>
+      </c>
+      <c r="O21">
+        <v>0.3088965728895579</v>
+      </c>
+      <c r="P21">
+        <v>0.3088965728895579</v>
+      </c>
+      <c r="Q21">
+        <v>28.9106040564</v>
+      </c>
+      <c r="R21">
+        <v>260.1954365076</v>
+      </c>
+      <c r="S21">
+        <v>0.05533929108774615</v>
+      </c>
+      <c r="T21">
+        <v>0.05533929108774615</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
         <v>25</v>
       </c>
-      <c r="B19" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" t="s">
-        <v>27</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>1.149381666666667</v>
+      </c>
+      <c r="H22">
+        <v>3.448145</v>
+      </c>
+      <c r="I22">
+        <v>0.01924819854374075</v>
+      </c>
+      <c r="J22">
+        <v>0.01924819854374075</v>
+      </c>
+      <c r="K22">
+        <v>2</v>
+      </c>
+      <c r="L22">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M22">
+        <v>0.3107469999999999</v>
+      </c>
+      <c r="N22">
+        <v>0.9322409999999999</v>
+      </c>
+      <c r="O22">
+        <v>0.03551873957835448</v>
+      </c>
+      <c r="P22">
+        <v>0.03551873957835448</v>
+      </c>
+      <c r="Q22">
+        <v>0.3571669047716666</v>
+      </c>
+      <c r="R22">
+        <v>3.214502142945</v>
+      </c>
+      <c r="S22">
+        <v>0.0006836717514275897</v>
+      </c>
+      <c r="T22">
+        <v>0.0006836717514275899</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>1.149381666666667</v>
+      </c>
+      <c r="H23">
+        <v>3.448145</v>
+      </c>
+      <c r="I23">
+        <v>0.01924819854374075</v>
+      </c>
+      <c r="J23">
+        <v>0.01924819854374075</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>1.585088</v>
+      </c>
+      <c r="N23">
+        <v>4.755264</v>
+      </c>
+      <c r="O23">
+        <v>0.1811773818597598</v>
+      </c>
+      <c r="P23">
+        <v>0.1811773818597597</v>
+      </c>
+      <c r="Q23">
+        <v>1.821871087253333</v>
+      </c>
+      <c r="R23">
+        <v>16.39683978528</v>
+      </c>
+      <c r="S23">
+        <v>0.00348733821767179</v>
+      </c>
+      <c r="T23">
+        <v>0.00348733821767179</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>1.149381666666667</v>
+      </c>
+      <c r="H24">
+        <v>3.448145</v>
+      </c>
+      <c r="I24">
+        <v>0.01924819854374075</v>
+      </c>
+      <c r="J24">
+        <v>0.01924819854374075</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>4.150503333333333</v>
+      </c>
+      <c r="N24">
+        <v>12.45151</v>
+      </c>
+      <c r="O24">
+        <v>0.474407305672328</v>
+      </c>
+      <c r="P24">
+        <v>0.4744073056723279</v>
+      </c>
+      <c r="Q24">
+        <v>4.770512438772222</v>
+      </c>
+      <c r="R24">
+        <v>42.93461194895</v>
+      </c>
+      <c r="S24">
+        <v>0.009131486010182077</v>
+      </c>
+      <c r="T24">
+        <v>0.009131486010182077</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
         <v>24</v>
       </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>0.996332114094014</v>
-      </c>
-      <c r="H19">
-        <v>0.996332114094014</v>
-      </c>
-      <c r="I19">
-        <v>0.01739461737912979</v>
-      </c>
-      <c r="J19">
-        <v>0.01739461737912979</v>
-      </c>
-      <c r="K19">
-        <v>1</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>2.52967463367355</v>
-      </c>
-      <c r="N19">
-        <v>2.52967463367355</v>
-      </c>
-      <c r="O19">
-        <v>0.3608908106155935</v>
-      </c>
-      <c r="P19">
-        <v>0.3608908106155935</v>
-      </c>
-      <c r="Q19">
-        <v>2.520396075737969</v>
-      </c>
-      <c r="R19">
-        <v>2.520396075737969</v>
-      </c>
-      <c r="S19">
-        <v>0.00627755756630224</v>
-      </c>
-      <c r="T19">
-        <v>0.00627755756630224</v>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>1.149381666666667</v>
+      </c>
+      <c r="H25">
+        <v>3.448145</v>
+      </c>
+      <c r="I25">
+        <v>0.01924819854374075</v>
+      </c>
+      <c r="J25">
+        <v>0.01924819854374075</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>2.70248</v>
+      </c>
+      <c r="N25">
+        <v>8.10744</v>
+      </c>
+      <c r="O25">
+        <v>0.3088965728895579</v>
+      </c>
+      <c r="P25">
+        <v>0.3088965728895579</v>
+      </c>
+      <c r="Q25">
+        <v>3.106180966533334</v>
+      </c>
+      <c r="R25">
+        <v>27.9556286988</v>
+      </c>
+      <c r="S25">
+        <v>0.005945702564459296</v>
+      </c>
+      <c r="T25">
+        <v>0.005945702564459298</v>
       </c>
     </row>
   </sheetData>
